--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_35.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.82, 52.64)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.88, 60.84)]</t>
+          <t>[('0:00:19.520000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[('0:00:58.320000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
+          <t>[('0:00:12.700000', '0:00:27.180000'), ('0:01:15.800000', '0:01:22.440000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:16.260000', '0:00:21.140000'), ('0:00:36.600000', '0:00:39')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:01:36.200000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:10.940000', '0:00:16.320000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[('0:00:41.895260', '0:00:54.712675')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:03.080000', '0:01:11.120000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['F', 'F/7', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:08.720000', '0:00:15.880000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:15.300272', '0:00:18.887755')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09859913793103448</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.605464, 10.96619)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000'), ('0:00:32.440000', '0:00:34.800000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:01:09.240000', '0:01:15.880000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['F', 'F/7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:00:15.300272', '0:00:18.887755')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:08.720000', '0:00:15.880000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(1.64, 5.02)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.76, 25.82)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.88, 21.16)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
